--- a/Incident_Report_Anca_Dinu.xlsx
+++ b/Incident_Report_Anca_Dinu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anca\Testare\Proiect_Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anca\Git\Proiect Final\Proiect-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6AEDED-ED59-44A8-92D9-7804EC9759CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1D21A1-2553-4306-8292-1A4904518AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="571" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1470" windowWidth="29040" windowHeight="15720" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incident report 1" sheetId="1" r:id="rId1"/>
@@ -621,14 +621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -760,13 +760,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -898,13 +898,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -961,7 +961,7 @@
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1035,14 +1035,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1211B7-FC93-4D66-86A0-FE6A59F3A08E}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1180,7 +1180,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="57.7265625" customWidth="1"/>
+    <col min="2" max="2" width="44.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1317,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1382,7 +1382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1455,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1520,7 +1520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1593,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1658,7 +1658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1731,7 +1731,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1796,7 +1796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1863,13 +1863,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1950,7 +1950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2007,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2139,13 +2139,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>

--- a/Incident_Report_Anca_Dinu.xlsx
+++ b/Incident_Report_Anca_Dinu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anca\Git\Proiect Final\Proiect-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1D21A1-2553-4306-8292-1A4904518AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B05C9-5240-420C-82A2-66F7E2275854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1470" windowWidth="29040" windowHeight="15720" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="960" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incident report 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="76">
   <si>
     <t>BUG ID</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve">The delay has to be: 3000 ms </t>
+  </si>
+  <si>
+    <t>Unit Test</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -897,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D02E293-D23E-4AC2-8BCE-CEFEB619238E}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1036,7 +1039,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1587,7 +1590,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1674,7 +1677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2004,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
